--- a/Prototype Programs/CO2_Test_Program/Covered Compiled Data.xlsx
+++ b/Prototype Programs/CO2_Test_Program/Covered Compiled Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\Documents\Uni\5th Year\1st Sem\Design in Mechanical and Mechatronic Systems\git\The-Brew-Crew\Prototype Programs\CO2_Test_Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA04ABA-3F2C-4A14-803E-790819852059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C932DCC6-C24F-4D3A-B734-2A98418050CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="7" xr2:uid="{FED5880F-32E9-43EE-ADDD-B75A90415D73}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{FED5880F-32E9-43EE-ADDD-B75A90415D73}"/>
   </bookViews>
   <sheets>
     <sheet name="Tea Compiled" sheetId="1" r:id="rId1"/>
@@ -24837,13 +24837,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F1251C-38F7-4002-9612-7D2921B50E47}">
   <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="F105" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="J123" sqref="J123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24863,7 +24866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>403</v>
       </c>
@@ -24884,7 +24887,7 @@
         <v>400.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>405</v>
       </c>
@@ -24905,7 +24908,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>406</v>
       </c>
@@ -24926,7 +24929,7 @@
         <v>402.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>407</v>
       </c>
@@ -24947,7 +24950,7 @@
         <v>403.8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>413</v>
       </c>
@@ -24968,7 +24971,7 @@
         <v>405.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>411</v>
       </c>
@@ -24989,7 +24992,7 @@
         <v>405.4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>416</v>
       </c>
@@ -25010,7 +25013,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>414</v>
       </c>
@@ -25031,7 +25034,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>411</v>
       </c>
@@ -25052,7 +25055,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>403</v>
       </c>
@@ -25073,7 +25076,7 @@
         <v>406.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>415</v>
       </c>
@@ -25094,7 +25097,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>422</v>
       </c>
@@ -25115,7 +25118,7 @@
         <v>412.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>417</v>
       </c>
@@ -25136,7 +25139,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>424</v>
       </c>
@@ -25157,7 +25160,7 @@
         <v>412.2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>427</v>
       </c>
@@ -25178,7 +25181,7 @@
         <v>414.6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>427</v>
       </c>
@@ -25199,7 +25202,7 @@
         <v>415.8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>426</v>
       </c>
@@ -25220,7 +25223,7 @@
         <v>416.8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>428</v>
       </c>
@@ -25241,7 +25244,7 @@
         <v>415.6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>435</v>
       </c>
@@ -25262,7 +25265,7 @@
         <v>422.2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>425</v>
       </c>
@@ -25283,7 +25286,7 @@
         <v>416.6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>438</v>
       </c>
@@ -25304,7 +25307,7 @@
         <v>424.4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>433</v>
       </c>
@@ -25325,7 +25328,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>430</v>
       </c>
@@ -25346,7 +25349,7 @@
         <v>422.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>443</v>
       </c>
@@ -25367,7 +25370,7 @@
         <v>427.2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>440</v>
       </c>
@@ -25388,7 +25391,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>445</v>
       </c>
@@ -25409,7 +25412,7 @@
         <v>429.6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>447</v>
       </c>
@@ -25430,7 +25433,7 @@
         <v>431.6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>445</v>
       </c>
@@ -25451,7 +25454,7 @@
         <v>432.2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>445</v>
       </c>
@@ -25472,7 +25475,7 @@
         <v>432.4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>454</v>
       </c>
@@ -25493,7 +25496,7 @@
         <v>434.6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>445</v>
       </c>
@@ -25514,7 +25517,7 @@
         <v>436.4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>457</v>
       </c>
@@ -25535,7 +25538,7 @@
         <v>436.8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>458</v>
       </c>
@@ -25556,7 +25559,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>461</v>
       </c>
@@ -25577,7 +25580,7 @@
         <v>440.8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>458</v>
       </c>
@@ -25598,7 +25601,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>469</v>
       </c>
@@ -25619,7 +25622,7 @@
         <v>445.8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>464</v>
       </c>
@@ -25640,7 +25643,7 @@
         <v>446.4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>464</v>
       </c>
@@ -25661,7 +25664,7 @@
         <v>447.4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>460</v>
       </c>
@@ -25682,7 +25685,7 @@
         <v>447.6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>468</v>
       </c>
@@ -25703,7 +25706,7 @@
         <v>447.8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>468</v>
       </c>
@@ -25724,7 +25727,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>472</v>
       </c>
@@ -25745,7 +25748,7 @@
         <v>455.2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>483</v>
       </c>
@@ -25766,7 +25769,7 @@
         <v>455.2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>477</v>
       </c>
@@ -25787,7 +25790,7 @@
         <v>455.6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>478</v>
       </c>
@@ -25808,7 +25811,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>483</v>
       </c>
@@ -25829,7 +25832,7 @@
         <v>460.8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>484</v>
       </c>
@@ -25850,7 +25853,7 @@
         <v>461.6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>488</v>
       </c>
@@ -25871,7 +25874,7 @@
         <v>462.8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>489</v>
       </c>
@@ -25892,7 +25895,7 @@
         <v>462.4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>487</v>
       </c>
@@ -25913,7 +25916,7 @@
         <v>464.2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>494</v>
       </c>
@@ -25934,7 +25937,7 @@
         <v>465.2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>493</v>
       </c>
@@ -25955,7 +25958,7 @@
         <v>468.8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>495</v>
       </c>
@@ -25976,7 +25979,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>499</v>
       </c>
@@ -25997,7 +26000,7 @@
         <v>471.4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>496</v>
       </c>
@@ -26018,7 +26021,7 @@
         <v>470.8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>502</v>
       </c>
@@ -26039,7 +26042,7 @@
         <v>473.6</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>498</v>
       </c>
@@ -26060,7 +26063,7 @@
         <v>473.4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>502</v>
       </c>
@@ -26081,7 +26084,7 @@
         <v>478.4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>505</v>
       </c>
@@ -26102,7 +26105,7 @@
         <v>475.4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>504</v>
       </c>
@@ -26123,7 +26126,7 @@
         <v>479.6</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>500</v>
       </c>
@@ -26144,7 +26147,7 @@
         <v>478.8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>504</v>
       </c>
@@ -26165,7 +26168,7 @@
         <v>478.2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>505</v>
       </c>
@@ -26186,7 +26189,7 @@
         <v>483.2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>511</v>
       </c>
@@ -26207,7 +26210,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>513</v>
       </c>
@@ -26228,7 +26231,7 @@
         <v>485.4</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>510</v>
       </c>
@@ -26249,7 +26252,7 @@
         <v>482.4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>522</v>
       </c>
@@ -26270,7 +26273,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>516</v>
       </c>
@@ -26291,7 +26294,7 @@
         <v>487.8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>520</v>
       </c>
@@ -26312,7 +26315,7 @@
         <v>490.8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>512</v>
       </c>
@@ -26333,7 +26336,7 @@
         <v>491.8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>519</v>
       </c>
@@ -26354,7 +26357,7 @@
         <v>493.2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>519</v>
       </c>
@@ -26375,7 +26378,7 @@
         <v>493.6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>525</v>
       </c>
@@ -26396,7 +26399,7 @@
         <v>493.6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>511</v>
       </c>
@@ -26417,7 +26420,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>520</v>
       </c>
@@ -26438,7 +26441,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>525</v>
       </c>
@@ -26459,7 +26462,7 @@
         <v>496.8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>526</v>
       </c>
@@ -26480,7 +26483,7 @@
         <v>498.4</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>534</v>
       </c>
@@ -26501,7 +26504,7 @@
         <v>501.4</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>530</v>
       </c>
@@ -26522,7 +26525,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>527</v>
       </c>
@@ -26543,7 +26546,7 @@
         <v>505.4</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>535</v>
       </c>
@@ -26564,7 +26567,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>532</v>
       </c>
@@ -26585,7 +26588,7 @@
         <v>502.8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>537</v>
       </c>
@@ -26606,7 +26609,7 @@
         <v>506.8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>537</v>
       </c>
@@ -26627,7 +26630,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>541</v>
       </c>
@@ -26648,7 +26651,7 @@
         <v>510.8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>540</v>
       </c>
@@ -26669,7 +26672,7 @@
         <v>506.4</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>544</v>
       </c>
@@ -26690,7 +26693,7 @@
         <v>514.79999999999995</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>542</v>
       </c>
@@ -26711,7 +26714,7 @@
         <v>513.79999999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>553</v>
       </c>
@@ -26732,7 +26735,7 @@
         <v>514.79999999999995</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>549</v>
       </c>
@@ -26753,7 +26756,7 @@
         <v>513.79999999999995</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>553</v>
       </c>
@@ -26774,7 +26777,7 @@
         <v>516.79999999999995</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>553</v>
       </c>
@@ -26795,7 +26798,7 @@
         <v>519.6</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>561</v>
       </c>
@@ -26816,7 +26819,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>557</v>
       </c>
@@ -26837,7 +26840,7 @@
         <v>522.4</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>554</v>
       </c>
@@ -26858,7 +26861,7 @@
         <v>523.6</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>558</v>
       </c>
@@ -26879,7 +26882,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>562</v>
       </c>
@@ -26900,7 +26903,7 @@
         <v>528.6</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>550</v>
       </c>
@@ -26921,7 +26924,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>566</v>
       </c>
@@ -26942,7 +26945,7 @@
         <v>531.20000000000005</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>563</v>
       </c>
@@ -26963,7 +26966,7 @@
         <v>533.6</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>564</v>
       </c>
@@ -26984,7 +26987,7 @@
         <v>534.20000000000005</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>564</v>
       </c>
@@ -27005,7 +27008,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>566</v>
       </c>
@@ -27026,7 +27029,7 @@
         <v>536.79999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>567</v>
       </c>
@@ -27047,7 +27050,7 @@
         <v>535.4</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>565</v>
       </c>
@@ -27068,7 +27071,7 @@
         <v>537.79999999999995</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>568</v>
       </c>
@@ -27089,7 +27092,7 @@
         <v>541.6</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>580</v>
       </c>
@@ -27110,7 +27113,7 @@
         <v>546.20000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>580</v>
       </c>
@@ -27131,7 +27134,7 @@
         <v>543.20000000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>570</v>
       </c>
@@ -27152,7 +27155,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>579</v>
       </c>
@@ -27173,7 +27176,7 @@
         <v>539.79999999999995</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>583</v>
       </c>
@@ -27194,7 +27197,7 @@
         <v>544.79999999999995</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>578</v>
       </c>
@@ -27215,7 +27218,7 @@
         <v>548.20000000000005</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>582</v>
       </c>
@@ -27236,7 +27239,7 @@
         <v>546.79999999999995</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>577</v>
       </c>
@@ -27257,7 +27260,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>576</v>
       </c>
@@ -27278,7 +27281,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>585</v>
       </c>
@@ -27299,7 +27302,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>584</v>
       </c>
@@ -27320,7 +27323,7 @@
         <v>548.6</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>583</v>
       </c>
@@ -27341,7 +27344,7 @@
         <v>551.6</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>586</v>
       </c>
@@ -27362,7 +27365,7 @@
         <v>553.79999999999995</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>593</v>
       </c>
@@ -27383,7 +27386,7 @@
         <v>558.20000000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>593</v>
       </c>
@@ -27404,7 +27407,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>588</v>
       </c>
@@ -27425,7 +27428,7 @@
         <v>555.6</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>595</v>
       </c>
@@ -27446,7 +27449,7 @@
         <v>560.6</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C125">
         <v>558</v>
       </c>
@@ -27457,7 +27460,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C126">
         <v>555</v>
       </c>
@@ -27468,7 +27471,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C127">
         <v>554</v>
       </c>
@@ -27479,7 +27482,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C128">
         <v>557</v>
       </c>
@@ -27490,7 +27493,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C129">
         <v>557</v>
       </c>
@@ -27501,7 +27504,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C130">
         <v>558</v>
       </c>
@@ -27512,7 +27515,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C131">
         <v>562</v>
       </c>
@@ -27523,7 +27526,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C132">
         <v>566</v>
       </c>
@@ -27534,7 +27537,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C133">
         <v>565</v>
       </c>
@@ -27545,7 +27548,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C134">
         <v>568</v>
       </c>
@@ -27556,7 +27559,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C135">
         <v>561</v>
       </c>
@@ -27567,7 +27570,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C136">
         <v>564</v>
       </c>
@@ -27578,7 +27581,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C137">
         <v>567</v>
       </c>
@@ -27589,7 +27592,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D138">
         <v>506</v>
       </c>
@@ -27597,17 +27600,17 @@
         <v>522</v>
       </c>
     </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E139">
         <v>519</v>
       </c>
     </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E140">
         <v>524</v>
       </c>
     </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E141">
         <v>526</v>
       </c>
@@ -27622,13 +27625,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E7065C-FF71-41BC-A8EF-5359B3FA02AA}">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -27648,7 +27654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>400</v>
       </c>
@@ -27669,7 +27675,7 @@
         <v>400.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>402</v>
       </c>
@@ -27690,7 +27696,7 @@
         <v>401.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>400</v>
       </c>
@@ -27711,7 +27717,7 @@
         <v>402.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>400</v>
       </c>
@@ -27732,7 +27738,7 @@
         <v>401.8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>400</v>
       </c>
@@ -27753,7 +27759,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>400</v>
       </c>
@@ -27774,7 +27780,7 @@
         <v>402.4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>406</v>
       </c>
@@ -27795,7 +27801,7 @@
         <v>405.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>401</v>
       </c>
@@ -27816,7 +27822,7 @@
         <v>401.4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>402</v>
       </c>
@@ -27837,7 +27843,7 @@
         <v>402.8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>400</v>
       </c>
@@ -27858,7 +27864,7 @@
         <v>401.4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>400</v>
       </c>
@@ -27879,7 +27885,7 @@
         <v>404.4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>405</v>
       </c>
@@ -27900,7 +27906,7 @@
         <v>404.8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>404</v>
       </c>
@@ -27921,7 +27927,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>404</v>
       </c>
@@ -27942,7 +27948,7 @@
         <v>405.8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>408</v>
       </c>
@@ -27963,7 +27969,7 @@
         <v>404.4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>413</v>
       </c>
@@ -27984,7 +27990,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>415</v>
       </c>
@@ -28005,7 +28011,7 @@
         <v>405.4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>415</v>
       </c>
@@ -28026,7 +28032,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>409</v>
       </c>
@@ -28047,7 +28053,7 @@
         <v>404.2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>413</v>
       </c>
@@ -28068,7 +28074,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>418</v>
       </c>
@@ -28089,7 +28095,7 @@
         <v>408.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>414</v>
       </c>
@@ -28110,7 +28116,7 @@
         <v>408.6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>421</v>
       </c>
@@ -28131,7 +28137,7 @@
         <v>408.2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>421</v>
       </c>
@@ -28152,7 +28158,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>423</v>
       </c>
@@ -28173,7 +28179,7 @@
         <v>409.8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>417</v>
       </c>
@@ -28194,7 +28200,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>426</v>
       </c>
@@ -28215,7 +28221,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>416</v>
       </c>
@@ -28236,7 +28242,7 @@
         <v>408.4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>417</v>
       </c>
@@ -28257,7 +28263,7 @@
         <v>407.6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>422</v>
       </c>
@@ -28278,7 +28284,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>419</v>
       </c>
@@ -28299,7 +28305,7 @@
         <v>406.6</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>425</v>
       </c>
@@ -28320,7 +28326,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>415</v>
       </c>
@@ -28341,7 +28347,7 @@
         <v>405.6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>418</v>
       </c>
@@ -28362,7 +28368,7 @@
         <v>408.8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>426</v>
       </c>
@@ -28383,7 +28389,7 @@
         <v>408.6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>427</v>
       </c>
@@ -28404,7 +28410,7 @@
         <v>410.4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>430</v>
       </c>
@@ -28425,7 +28431,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>423</v>
       </c>
@@ -28446,7 +28452,7 @@
         <v>410.4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>419</v>
       </c>
@@ -28467,7 +28473,7 @@
         <v>411.6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>423</v>
       </c>
@@ -28488,7 +28494,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>421</v>
       </c>
@@ -28509,7 +28515,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>429</v>
       </c>
@@ -28530,7 +28536,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>431</v>
       </c>
@@ -28551,7 +28557,7 @@
         <v>412.2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>431</v>
       </c>
@@ -28572,7 +28578,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>418</v>
       </c>
@@ -28593,7 +28599,7 @@
         <v>408.8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>426</v>
       </c>
@@ -28614,7 +28620,7 @@
         <v>409.2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>424</v>
       </c>
@@ -28635,7 +28641,7 @@
         <v>411.8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>420</v>
       </c>
@@ -28656,7 +28662,7 @@
         <v>408.4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>429</v>
       </c>
@@ -28677,7 +28683,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>421</v>
       </c>
@@ -28698,7 +28704,7 @@
         <v>405.8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>425</v>
       </c>
@@ -28719,7 +28725,7 @@
         <v>409.4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>431</v>
       </c>
@@ -28740,7 +28746,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>428</v>
       </c>
@@ -28761,7 +28767,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>428</v>
       </c>
@@ -28782,7 +28788,7 @@
         <v>411.8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>426</v>
       </c>
@@ -28803,7 +28809,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>425</v>
       </c>
@@ -28824,7 +28830,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>425</v>
       </c>
@@ -28845,7 +28851,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>426</v>
       </c>
@@ -28866,7 +28872,7 @@
         <v>412.2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>426</v>
       </c>
@@ -28887,7 +28893,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>428</v>
       </c>
@@ -28908,7 +28914,7 @@
         <v>411.6</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>427</v>
       </c>
@@ -28929,7 +28935,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>424</v>
       </c>
@@ -28950,7 +28956,7 @@
         <v>411.8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>432</v>
       </c>
@@ -28971,7 +28977,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>419</v>
       </c>
@@ -28992,7 +28998,7 @@
         <v>408.8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>422</v>
       </c>
@@ -29013,7 +29019,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>435</v>
       </c>
@@ -29034,7 +29040,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>422</v>
       </c>
@@ -29055,7 +29061,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>430</v>
       </c>
@@ -29076,7 +29082,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>419</v>
       </c>
@@ -29097,7 +29103,7 @@
         <v>411.2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>422</v>
       </c>
@@ -29118,7 +29124,7 @@
         <v>409.8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>424</v>
       </c>
@@ -29139,7 +29145,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>431</v>
       </c>
@@ -29160,7 +29166,7 @@
         <v>412.6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>426</v>
       </c>
@@ -29181,7 +29187,7 @@
         <v>411.6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>432</v>
       </c>
@@ -29202,7 +29208,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>422</v>
       </c>
@@ -29223,7 +29229,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>425</v>
       </c>
@@ -29244,7 +29250,7 @@
         <v>412.2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>419</v>
       </c>
@@ -29265,7 +29271,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>420</v>
       </c>
@@ -29286,7 +29292,7 @@
         <v>410.4</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>415</v>
       </c>
@@ -29307,7 +29313,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>418</v>
       </c>
@@ -29328,7 +29334,7 @@
         <v>408.4</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>421</v>
       </c>
@@ -29349,7 +29355,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>427</v>
       </c>
@@ -29370,7 +29376,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>414</v>
       </c>
@@ -29391,7 +29397,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>423</v>
       </c>
@@ -29412,7 +29418,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>417</v>
       </c>
@@ -29433,7 +29439,7 @@
         <v>410.8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>411</v>
       </c>
@@ -29454,7 +29460,7 @@
         <v>405.4</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>412</v>
       </c>
@@ -29475,7 +29481,7 @@
         <v>406.6</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>417</v>
       </c>
@@ -29496,7 +29502,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>412</v>
       </c>
@@ -29517,7 +29523,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>416</v>
       </c>
@@ -29538,7 +29544,7 @@
         <v>407.8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>413</v>
       </c>
@@ -29559,7 +29565,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>416</v>
       </c>
@@ -29580,7 +29586,7 @@
         <v>405.4</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>422</v>
       </c>
@@ -29601,7 +29607,7 @@
         <v>408.2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>420</v>
       </c>
@@ -29622,7 +29628,7 @@
         <v>409.8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>415</v>
       </c>
@@ -29643,7 +29649,7 @@
         <v>408.4</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>414</v>
       </c>
@@ -29664,7 +29670,7 @@
         <v>406.4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>418</v>
       </c>
@@ -29685,7 +29691,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>420</v>
       </c>
@@ -29706,7 +29712,7 @@
         <v>409.4</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>418</v>
       </c>
@@ -29727,7 +29733,7 @@
         <v>408.4</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>414</v>
       </c>
@@ -29748,7 +29754,7 @@
         <v>407.6</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>412</v>
       </c>
@@ -29769,7 +29775,7 @@
         <v>405.6</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>418</v>
       </c>
@@ -29790,7 +29796,7 @@
         <v>407.2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>416</v>
       </c>
@@ -29811,7 +29817,7 @@
         <v>408.4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>418</v>
       </c>
@@ -29832,7 +29838,7 @@
         <v>407.8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>417</v>
       </c>
@@ -29853,7 +29859,7 @@
         <v>411.6</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>419</v>
       </c>
@@ -29874,7 +29880,7 @@
         <v>409.2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>428</v>
       </c>
@@ -29895,7 +29901,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>416</v>
       </c>
@@ -29916,7 +29922,7 @@
         <v>409.2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>417</v>
       </c>
@@ -29937,7 +29943,7 @@
         <v>410.8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>415</v>
       </c>
@@ -29958,7 +29964,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>420</v>
       </c>
@@ -29979,7 +29985,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>422</v>
       </c>
@@ -30000,7 +30006,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>417</v>
       </c>
@@ -30021,7 +30027,7 @@
         <v>410.4</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>412</v>
       </c>
@@ -30042,7 +30048,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>418</v>
       </c>
@@ -30063,7 +30069,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>413</v>
       </c>
@@ -30084,7 +30090,7 @@
         <v>409.8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>415</v>
       </c>
@@ -30105,7 +30111,7 @@
         <v>408.6</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>416</v>
       </c>
@@ -30126,7 +30132,7 @@
         <v>407.8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>416</v>
       </c>
@@ -30147,7 +30153,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>413</v>
       </c>
@@ -30168,7 +30174,7 @@
         <v>408.8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>422</v>
       </c>
@@ -30189,7 +30195,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>416</v>
       </c>
@@ -30210,7 +30216,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>422</v>
       </c>
@@ -30231,77 +30237,77 @@
         <v>409.2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E125">
         <v>411</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E126">
         <v>409</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E127">
         <v>409</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E128">
         <v>407</v>
       </c>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129">
         <v>406</v>
       </c>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E130">
         <v>405</v>
       </c>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E131">
         <v>412</v>
       </c>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E132">
         <v>412</v>
       </c>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E133">
         <v>411</v>
       </c>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E134">
         <v>406</v>
       </c>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E135">
         <v>408</v>
       </c>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E136">
         <v>410</v>
       </c>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E137">
         <v>411</v>
       </c>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E138">
         <v>401</v>
       </c>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E139">
         <v>407</v>
       </c>
@@ -30317,12 +30323,12 @@
   <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="F104" sqref="F1:F1048576"/>
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -30342,7 +30348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>409</v>
       </c>
@@ -30363,7 +30369,7 @@
         <v>404.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>416</v>
       </c>
@@ -30384,7 +30390,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>427</v>
       </c>
@@ -30405,7 +30411,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>441</v>
       </c>
@@ -30426,7 +30432,7 @@
         <v>415.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>448</v>
       </c>
@@ -30447,7 +30453,7 @@
         <v>416.8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>453</v>
       </c>
@@ -30468,7 +30474,7 @@
         <v>422.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>464</v>
       </c>
@@ -30489,7 +30495,7 @@
         <v>427.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>457</v>
       </c>
@@ -30510,7 +30516,7 @@
         <v>428.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>472</v>
       </c>
@@ -30531,7 +30537,7 @@
         <v>435.6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>473</v>
       </c>
@@ -30552,7 +30558,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>488</v>
       </c>
@@ -30573,7 +30579,7 @@
         <v>442.6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>486</v>
       </c>
@@ -30594,7 +30600,7 @@
         <v>447.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>497</v>
       </c>
@@ -30615,7 +30621,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>503</v>
       </c>
@@ -30636,7 +30642,7 @@
         <v>457.2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>519</v>
       </c>
@@ -30657,7 +30663,7 @@
         <v>464.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>520</v>
       </c>
@@ -30678,7 +30684,7 @@
         <v>470.8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>530</v>
       </c>
@@ -30699,7 +30705,7 @@
         <v>473.6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>541</v>
       </c>
@@ -30720,7 +30726,7 @@
         <v>477.6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>544</v>
       </c>
@@ -30741,7 +30747,7 @@
         <v>483.2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>553</v>
       </c>
@@ -30762,7 +30768,7 @@
         <v>489.8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>559</v>
       </c>
@@ -30783,7 +30789,7 @@
         <v>496.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>562</v>
       </c>
@@ -30804,7 +30810,7 @@
         <v>500.6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>572</v>
       </c>
@@ -30825,7 +30831,7 @@
         <v>507.8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>576</v>
       </c>
@@ -30846,7 +30852,7 @@
         <v>510.6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>573</v>
       </c>
@@ -30867,7 +30873,7 @@
         <v>513.6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>583</v>
       </c>
@@ -30888,7 +30894,7 @@
         <v>516.4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>584</v>
       </c>
@@ -30909,7 +30915,7 @@
         <v>518.6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>596</v>
       </c>
@@ -30930,7 +30936,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>597</v>
       </c>
@@ -30951,7 +30957,7 @@
         <v>528.6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>597</v>
       </c>
@@ -30972,7 +30978,7 @@
         <v>532.6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>602</v>
       </c>
@@ -30993,7 +30999,7 @@
         <v>535.79999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>609</v>
       </c>
@@ -31014,7 +31020,7 @@
         <v>540.6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>610</v>
       </c>
@@ -31035,7 +31041,7 @@
         <v>545.20000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>616</v>
       </c>
@@ -31056,7 +31062,7 @@
         <v>550.20000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>613</v>
       </c>
@@ -31077,7 +31083,7 @@
         <v>553.6</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>620</v>
       </c>
@@ -31098,7 +31104,7 @@
         <v>559.6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>627</v>
       </c>
@@ -31119,7 +31125,7 @@
         <v>564.79999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>622</v>
       </c>
@@ -31140,7 +31146,7 @@
         <v>567.79999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>620</v>
       </c>
@@ -31161,7 +31167,7 @@
         <v>570.20000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>636</v>
       </c>
@@ -31182,7 +31188,7 @@
         <v>574.6</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>632</v>
       </c>
@@ -31203,7 +31209,7 @@
         <v>576.20000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>642</v>
       </c>
@@ -31224,7 +31230,7 @@
         <v>582.4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>646</v>
       </c>
@@ -31245,7 +31251,7 @@
         <v>589.20000000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>651</v>
       </c>
@@ -31266,7 +31272,7 @@
         <v>591.79999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>651</v>
       </c>
@@ -31287,7 +31293,7 @@
         <v>595.6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>654</v>
       </c>
@@ -31308,7 +31314,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>662</v>
       </c>
@@ -31329,7 +31335,7 @@
         <v>608.20000000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>665</v>
       </c>
@@ -31350,7 +31356,7 @@
         <v>611.20000000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>673</v>
       </c>
@@ -31371,7 +31377,7 @@
         <v>617.79999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>680</v>
       </c>
@@ -31392,7 +31398,7 @@
         <v>621.6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>678</v>
       </c>
@@ -31413,7 +31419,7 @@
         <v>626.4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>686</v>
       </c>
@@ -31434,7 +31440,7 @@
         <v>630.20000000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>694</v>
       </c>
@@ -31455,7 +31461,7 @@
         <v>633.4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>702</v>
       </c>
@@ -31476,7 +31482,7 @@
         <v>638.79999999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>700</v>
       </c>
@@ -31497,7 +31503,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>711</v>
       </c>
@@ -31518,7 +31524,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>713</v>
       </c>
@@ -31539,7 +31545,7 @@
         <v>646.6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>715</v>
       </c>
@@ -31560,7 +31566,7 @@
         <v>653.79999999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>713</v>
       </c>
@@ -31581,7 +31587,7 @@
         <v>658.8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>708</v>
       </c>
@@ -31602,7 +31608,7 @@
         <v>655.20000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>714</v>
       </c>
@@ -31623,7 +31629,7 @@
         <v>661.6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>714</v>
       </c>
@@ -31644,7 +31650,7 @@
         <v>667.4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>717</v>
       </c>
@@ -31665,7 +31671,7 @@
         <v>671.4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>719</v>
       </c>
@@ -31686,7 +31692,7 @@
         <v>675.6</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>725</v>
       </c>
@@ -31707,7 +31713,7 @@
         <v>678.8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>726</v>
       </c>
@@ -31728,7 +31734,7 @@
         <v>682.4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>730</v>
       </c>
@@ -31749,7 +31755,7 @@
         <v>685.8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>737</v>
       </c>
@@ -31770,7 +31776,7 @@
         <v>689.4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>742</v>
       </c>
@@ -31791,7 +31797,7 @@
         <v>693.6</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>740</v>
       </c>
@@ -31812,7 +31818,7 @@
         <v>698.8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>748</v>
       </c>
@@ -31833,7 +31839,7 @@
         <v>705.2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>746</v>
       </c>
@@ -31854,7 +31860,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>747</v>
       </c>
@@ -31875,7 +31881,7 @@
         <v>710.4</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>752</v>
       </c>
@@ -31896,7 +31902,7 @@
         <v>715.6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>754</v>
       </c>
@@ -31917,7 +31923,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>747</v>
       </c>
@@ -31938,7 +31944,7 @@
         <v>714.6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>752</v>
       </c>
@@ -31959,7 +31965,7 @@
         <v>718.8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>756</v>
       </c>
@@ -31980,7 +31986,7 @@
         <v>719.2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>763</v>
       </c>
@@ -32001,7 +32007,7 @@
         <v>720.4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>764</v>
       </c>
@@ -32022,7 +32028,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>762</v>
       </c>
@@ -32043,7 +32049,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>773</v>
       </c>
@@ -32064,7 +32070,7 @@
         <v>731.6</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>780</v>
       </c>
@@ -32085,7 +32091,7 @@
         <v>732.8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>780</v>
       </c>
@@ -32106,7 +32112,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>781</v>
       </c>
@@ -32127,7 +32133,7 @@
         <v>736.2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>775</v>
       </c>
@@ -32148,7 +32154,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>785</v>
       </c>
@@ -32169,7 +32175,7 @@
         <v>745.4</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>797</v>
       </c>
@@ -32190,7 +32196,7 @@
         <v>746.8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>788</v>
       </c>
@@ -32211,7 +32217,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>786</v>
       </c>
@@ -32232,7 +32238,7 @@
         <v>747.8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>797</v>
       </c>
@@ -32253,7 +32259,7 @@
         <v>755.6</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>791</v>
       </c>
@@ -32274,7 +32280,7 @@
         <v>754.2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>790</v>
       </c>
@@ -32295,7 +32301,7 @@
         <v>755.4</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>800</v>
       </c>
@@ -32316,7 +32322,7 @@
         <v>761.8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>798</v>
       </c>
@@ -32337,7 +32343,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>803</v>
       </c>
@@ -32358,7 +32364,7 @@
         <v>767.8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>806</v>
       </c>
@@ -32379,7 +32385,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>805</v>
       </c>
@@ -32400,7 +32406,7 @@
         <v>772.2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>805</v>
       </c>
@@ -32421,7 +32427,7 @@
         <v>773.4</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>812</v>
       </c>
@@ -32442,7 +32448,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>807</v>
       </c>
@@ -32463,7 +32469,7 @@
         <v>779.6</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>812</v>
       </c>
@@ -32484,7 +32490,7 @@
         <v>778.8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>809</v>
       </c>
@@ -32505,7 +32511,7 @@
         <v>779.2</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>814</v>
       </c>
@@ -32526,7 +32532,7 @@
         <v>782.4</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>818</v>
       </c>
@@ -32547,7 +32553,7 @@
         <v>783.8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>814</v>
       </c>
@@ -32568,7 +32574,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>816</v>
       </c>
@@ -32589,7 +32595,7 @@
         <v>788.4</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>813</v>
       </c>
@@ -32610,7 +32616,7 @@
         <v>788.6</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>820</v>
       </c>
@@ -32631,7 +32637,7 @@
         <v>791.8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>822</v>
       </c>
@@ -32652,7 +32658,7 @@
         <v>792.8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>828</v>
       </c>
@@ -32673,7 +32679,7 @@
         <v>799.4</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>826</v>
       </c>
@@ -32694,7 +32700,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>830</v>
       </c>
@@ -32715,7 +32721,7 @@
         <v>802.2</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>829</v>
       </c>
@@ -32736,7 +32742,7 @@
         <v>805.2</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>834</v>
       </c>
@@ -32757,7 +32763,7 @@
         <v>806.8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>827</v>
       </c>
@@ -32778,7 +32784,7 @@
         <v>807.4</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>826</v>
       </c>
@@ -32799,7 +32805,7 @@
         <v>807.8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>830</v>
       </c>
@@ -32820,7 +32826,7 @@
         <v>811.8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>832</v>
       </c>
@@ -32841,7 +32847,7 @@
         <v>816.8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>838</v>
       </c>
@@ -32862,7 +32868,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>832</v>
       </c>
@@ -32883,7 +32889,7 @@
         <v>820.4</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>837</v>
       </c>
@@ -32904,7 +32910,7 @@
         <v>826.8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>840</v>
       </c>
@@ -32925,72 +32931,72 @@
         <v>829.6</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>750</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>750</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>752</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>760</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>759</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>759</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>759</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>760</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>761</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>764</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>772</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>770</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>765</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>772</v>
       </c>
@@ -33005,13 +33011,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520893F-9A27-4727-A598-0B0712DBBBB3}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="F104" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -33031,7 +33040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>400</v>
       </c>
@@ -33052,7 +33061,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>402</v>
       </c>
@@ -33073,7 +33082,7 @@
         <v>407.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>416</v>
       </c>
@@ -33094,7 +33103,7 @@
         <v>411.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>421</v>
       </c>
@@ -33115,7 +33124,7 @@
         <v>414.4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>430</v>
       </c>
@@ -33136,7 +33145,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>436</v>
       </c>
@@ -33157,7 +33166,7 @@
         <v>425.4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>440</v>
       </c>
@@ -33178,7 +33187,7 @@
         <v>431.2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>448</v>
       </c>
@@ -33199,7 +33208,7 @@
         <v>435.4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>457</v>
       </c>
@@ -33220,7 +33229,7 @@
         <v>439.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>465</v>
       </c>
@@ -33241,7 +33250,7 @@
         <v>443.8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>471</v>
       </c>
@@ -33262,7 +33271,7 @@
         <v>448.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>480</v>
       </c>
@@ -33283,7 +33292,7 @@
         <v>453.6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>489</v>
       </c>
@@ -33304,7 +33313,7 @@
         <v>456.4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>490</v>
       </c>
@@ -33325,7 +33334,7 @@
         <v>463.2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>489</v>
       </c>
@@ -33346,7 +33355,7 @@
         <v>463.8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>501</v>
       </c>
@@ -33367,7 +33376,7 @@
         <v>470.8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>509</v>
       </c>
@@ -33388,7 +33397,7 @@
         <v>473.8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>514</v>
       </c>
@@ -33409,7 +33418,7 @@
         <v>479.4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>523</v>
       </c>
@@ -33430,7 +33439,7 @@
         <v>483.4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>530</v>
       </c>
@@ -33451,7 +33460,7 @@
         <v>491.8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>531</v>
       </c>
@@ -33472,7 +33481,7 @@
         <v>494.4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>535</v>
       </c>
@@ -33493,7 +33502,7 @@
         <v>496.2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>540</v>
       </c>
@@ -33514,7 +33523,7 @@
         <v>502.2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>550</v>
       </c>
@@ -33535,7 +33544,7 @@
         <v>509.4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>554</v>
       </c>
@@ -33556,7 +33565,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>557</v>
       </c>
@@ -33577,7 +33586,7 @@
         <v>515.79999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>565</v>
       </c>
@@ -33598,7 +33607,7 @@
         <v>523.4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>568</v>
       </c>
@@ -33619,7 +33628,7 @@
         <v>526.6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>584</v>
       </c>
@@ -33640,7 +33649,7 @@
         <v>535.20000000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>582</v>
       </c>
@@ -33661,7 +33670,7 @@
         <v>539.4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>590</v>
       </c>
@@ -33682,7 +33691,7 @@
         <v>543.79999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>596</v>
       </c>
@@ -33703,7 +33712,7 @@
         <v>548.20000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>599</v>
       </c>
@@ -33724,7 +33733,7 @@
         <v>553.4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>602</v>
       </c>
@@ -33745,7 +33754,7 @@
         <v>555.20000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>612</v>
       </c>
@@ -33766,7 +33775,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>612</v>
       </c>
@@ -33787,7 +33796,7 @@
         <v>566.4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>621</v>
       </c>
@@ -33808,7 +33817,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>627</v>
       </c>
@@ -33829,7 +33838,7 @@
         <v>575.6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>632</v>
       </c>
@@ -33850,7 +33859,7 @@
         <v>582.4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>631</v>
       </c>
@@ -33871,7 +33880,7 @@
         <v>583.79999999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>646</v>
       </c>
@@ -33892,7 +33901,7 @@
         <v>591.4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>643</v>
       </c>
@@ -33913,7 +33922,7 @@
         <v>592.4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>649</v>
       </c>
@@ -33934,7 +33943,7 @@
         <v>597.4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>652</v>
       </c>
@@ -33955,7 +33964,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>656</v>
       </c>
@@ -33976,7 +33985,7 @@
         <v>607.6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>669</v>
       </c>
@@ -33997,7 +34006,7 @@
         <v>613.79999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>673</v>
       </c>
@@ -34018,7 +34027,7 @@
         <v>615.79999999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>675</v>
       </c>
@@ -34039,7 +34048,7 @@
         <v>620.4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>679</v>
       </c>
@@ -34060,7 +34069,7 @@
         <v>626.4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>686</v>
       </c>
@@ -34081,7 +34090,7 @@
         <v>630.20000000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>695</v>
       </c>
@@ -34102,7 +34111,7 @@
         <v>636.6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>698</v>
       </c>
@@ -34123,7 +34132,7 @@
         <v>639.4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>697</v>
       </c>
@@ -34144,7 +34153,7 @@
         <v>641.79999999999995</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>702</v>
       </c>
@@ -34165,7 +34174,7 @@
         <v>647.79999999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>707</v>
       </c>
@@ -34186,7 +34195,7 @@
         <v>652.6</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>712</v>
       </c>
@@ -34207,7 +34216,7 @@
         <v>654.79999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>724</v>
       </c>
@@ -34228,7 +34237,7 @@
         <v>663.4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>719</v>
       </c>
@@ -34249,7 +34258,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>732</v>
       </c>
@@ -34270,7 +34279,7 @@
         <v>671.2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>734</v>
       </c>
@@ -34291,7 +34300,7 @@
         <v>674.2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>734</v>
       </c>
@@ -34312,7 +34321,7 @@
         <v>675.8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>737</v>
       </c>
@@ -34333,7 +34342,7 @@
         <v>680.8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>737</v>
       </c>
@@ -34354,7 +34363,7 @@
         <v>683.6</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>748</v>
       </c>
@@ -34375,7 +34384,7 @@
         <v>689.8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>748</v>
       </c>
@@ -34396,7 +34405,7 @@
         <v>693.2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>757</v>
       </c>
@@ -34417,7 +34426,7 @@
         <v>696.8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>759</v>
       </c>
@@ -34438,7 +34447,7 @@
         <v>699.2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>763</v>
       </c>
@@ -34459,7 +34468,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>764</v>
       </c>
@@ -34480,7 +34489,7 @@
         <v>704.4</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>768</v>
       </c>
@@ -34501,7 +34510,7 @@
         <v>710.6</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>767</v>
       </c>
@@ -34522,7 +34531,7 @@
         <v>714.4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>775</v>
       </c>
@@ -34543,7 +34552,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>779</v>
       </c>
@@ -34564,7 +34573,7 @@
         <v>721.2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>787</v>
       </c>
@@ -34585,7 +34594,7 @@
         <v>723.6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>787</v>
       </c>
@@ -34606,7 +34615,7 @@
         <v>729.6</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>793</v>
       </c>
@@ -34627,7 +34636,7 @@
         <v>735.8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>808</v>
       </c>
@@ -34648,7 +34657,7 @@
         <v>740.8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>798</v>
       </c>
@@ -34669,7 +34678,7 @@
         <v>741.4</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>803</v>
       </c>
@@ -34690,7 +34699,7 @@
         <v>743.2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>813</v>
       </c>
@@ -34711,7 +34720,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>807</v>
       </c>
@@ -34732,7 +34741,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>814</v>
       </c>
@@ -34753,7 +34762,7 @@
         <v>752.6</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>822</v>
       </c>
@@ -34774,7 +34783,7 @@
         <v>757.6</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>822</v>
       </c>
@@ -34795,7 +34804,7 @@
         <v>761.6</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>822</v>
       </c>
@@ -34816,7 +34825,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>830</v>
       </c>
@@ -34837,7 +34846,7 @@
         <v>771.6</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>828</v>
       </c>
@@ -34858,7 +34867,7 @@
         <v>772.2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>836</v>
       </c>
@@ -34879,7 +34888,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>847</v>
       </c>
@@ -34900,7 +34909,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>841</v>
       </c>
@@ -34921,7 +34930,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>846</v>
       </c>
@@ -34942,7 +34951,7 @@
         <v>789.2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>855</v>
       </c>
@@ -34963,7 +34972,7 @@
         <v>796.8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>858</v>
       </c>
@@ -34984,7 +34993,7 @@
         <v>799.2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>862</v>
       </c>
@@ -35005,7 +35014,7 @@
         <v>806.2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>862</v>
       </c>
@@ -35026,7 +35035,7 @@
         <v>805.2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>882</v>
       </c>
@@ -35047,7 +35056,7 @@
         <v>812.6</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>886</v>
       </c>
@@ -35068,7 +35077,7 @@
         <v>816.8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>888</v>
       </c>
@@ -35089,7 +35098,7 @@
         <v>824.4</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>911</v>
       </c>
@@ -35110,7 +35119,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>914</v>
       </c>
@@ -35131,7 +35140,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>907</v>
       </c>
@@ -35152,7 +35161,7 @@
         <v>836.8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>916</v>
       </c>
@@ -35173,7 +35182,7 @@
         <v>842.2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>928</v>
       </c>
@@ -35194,7 +35203,7 @@
         <v>847.4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>929</v>
       </c>
@@ -35215,7 +35224,7 @@
         <v>850.4</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>945</v>
       </c>
@@ -35236,7 +35245,7 @@
         <v>860.2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>948</v>
       </c>
@@ -35257,7 +35266,7 @@
         <v>860.2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>954</v>
       </c>
@@ -35278,7 +35287,7 @@
         <v>868.4</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>963</v>
       </c>
@@ -35299,7 +35308,7 @@
         <v>870.2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>967</v>
       </c>
@@ -35320,7 +35329,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>961</v>
       </c>
@@ -35341,7 +35350,7 @@
         <v>876.2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>971</v>
       </c>
@@ -35362,7 +35371,7 @@
         <v>881.2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>974</v>
       </c>
@@ -35383,7 +35392,7 @@
         <v>884.4</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>998</v>
       </c>
@@ -35404,7 +35413,7 @@
         <v>891.2</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>994</v>
       </c>
@@ -35425,7 +35434,7 @@
         <v>894.8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1008</v>
       </c>
@@ -35446,7 +35455,7 @@
         <v>902.4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1016</v>
       </c>
@@ -35467,7 +35476,7 @@
         <v>906.8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1014</v>
       </c>
@@ -35488,7 +35497,7 @@
         <v>908.6</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1043</v>
       </c>
@@ -35509,7 +35518,7 @@
         <v>917.6</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1039</v>
       </c>
@@ -35530,7 +35539,7 @@
         <v>920.8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1052</v>
       </c>
@@ -35551,7 +35560,7 @@
         <v>927.2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1050</v>
       </c>
@@ -35572,7 +35581,7 @@
         <v>925.2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1057</v>
       </c>
@@ -35593,7 +35602,7 @@
         <v>934.4</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1066</v>
       </c>
@@ -35614,82 +35623,82 @@
         <v>942.4</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C125">
         <v>823</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C126">
         <v>827</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C127">
         <v>830</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C128">
         <v>829</v>
       </c>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129">
         <v>832</v>
       </c>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130">
         <v>834</v>
       </c>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131">
         <v>840</v>
       </c>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132">
         <v>842</v>
       </c>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133">
         <v>841</v>
       </c>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134">
         <v>840</v>
       </c>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135">
         <v>844</v>
       </c>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136">
         <v>849</v>
       </c>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137">
         <v>850</v>
       </c>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138">
         <v>858</v>
       </c>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139">
         <v>853</v>
       </c>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140">
         <v>855</v>
       </c>
@@ -35704,13 +35713,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE853F4F-3A84-4D3A-9C25-9925BA5BFAC6}">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F94" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -35730,7 +35742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>403</v>
       </c>
@@ -35751,7 +35763,7 @@
         <v>404.8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>421</v>
       </c>
@@ -35772,7 +35784,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>425</v>
       </c>
@@ -35793,7 +35805,7 @@
         <v>420.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>438</v>
       </c>
@@ -35814,7 +35826,7 @@
         <v>426.4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>443</v>
       </c>
@@ -35835,7 +35847,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>448</v>
       </c>
@@ -35856,7 +35868,7 @@
         <v>439.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>465</v>
       </c>
@@ -35877,7 +35889,7 @@
         <v>445.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>486</v>
       </c>
@@ -35898,7 +35910,7 @@
         <v>456.4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>489</v>
       </c>
@@ -35919,7 +35931,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>485</v>
       </c>
@@ -35940,7 +35952,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>501</v>
       </c>
@@ -35961,7 +35973,7 @@
         <v>473.6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>518</v>
       </c>
@@ -35982,7 +35994,7 @@
         <v>479.8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>521</v>
       </c>
@@ -36003,7 +36015,7 @@
         <v>484.8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>529</v>
       </c>
@@ -36024,7 +36036,7 @@
         <v>491.6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>539</v>
       </c>
@@ -36045,7 +36057,7 @@
         <v>496.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>547</v>
       </c>
@@ -36066,7 +36078,7 @@
         <v>503.4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>563</v>
       </c>
@@ -36087,7 +36099,7 @@
         <v>511.6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>567</v>
       </c>
@@ -36108,7 +36120,7 @@
         <v>516.4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>579</v>
       </c>
@@ -36129,7 +36141,7 @@
         <v>522.20000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>585</v>
       </c>
@@ -36150,7 +36162,7 @@
         <v>529.6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>598</v>
       </c>
@@ -36171,7 +36183,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>602</v>
       </c>
@@ -36192,7 +36204,7 @@
         <v>540.79999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>608</v>
       </c>
@@ -36213,7 +36225,7 @@
         <v>546.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>618</v>
       </c>
@@ -36234,7 +36246,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>630</v>
       </c>
@@ -36255,7 +36267,7 @@
         <v>558.4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>633</v>
       </c>
@@ -36276,7 +36288,7 @@
         <v>564.4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>641</v>
       </c>
@@ -36297,7 +36309,7 @@
         <v>567.79999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>654</v>
       </c>
@@ -36318,7 +36330,7 @@
         <v>574.20000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>659</v>
       </c>
@@ -36339,7 +36351,7 @@
         <v>581.6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>666</v>
       </c>
@@ -36360,7 +36372,7 @@
         <v>586.6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>669</v>
       </c>
@@ -36381,7 +36393,7 @@
         <v>592.4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>678</v>
       </c>
@@ -36402,7 +36414,7 @@
         <v>597.4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>685</v>
       </c>
@@ -36423,7 +36435,7 @@
         <v>603.79999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>691</v>
       </c>
@@ -36444,7 +36456,7 @@
         <v>608.4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>694</v>
       </c>
@@ -36465,7 +36477,7 @@
         <v>615.20000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>703</v>
       </c>
@@ -36486,7 +36498,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>708</v>
       </c>
@@ -36507,7 +36519,7 @@
         <v>625.6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>713</v>
       </c>
@@ -36528,7 +36540,7 @@
         <v>626.79999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>716</v>
       </c>
@@ -36549,7 +36561,7 @@
         <v>630.79999999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>731</v>
       </c>
@@ -36570,7 +36582,7 @@
         <v>639.20000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>728</v>
       </c>
@@ -36591,7 +36603,7 @@
         <v>644.6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>741</v>
       </c>
@@ -36612,7 +36624,7 @@
         <v>650.79999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>739</v>
       </c>
@@ -36633,7 +36645,7 @@
         <v>650.79999999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>752</v>
       </c>
@@ -36654,7 +36666,7 @@
         <v>657.4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>759</v>
       </c>
@@ -36675,7 +36687,7 @@
         <v>661.2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>759</v>
       </c>
@@ -36696,7 +36708,7 @@
         <v>663.8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>765</v>
       </c>
@@ -36717,7 +36729,7 @@
         <v>670.6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>774</v>
       </c>
@@ -36738,7 +36750,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>776</v>
       </c>
@@ -36759,7 +36771,7 @@
         <v>678.4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>789</v>
       </c>
@@ -36780,7 +36792,7 @@
         <v>684.4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>785</v>
       </c>
@@ -36801,7 +36813,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>805</v>
       </c>
@@ -36822,7 +36834,7 @@
         <v>695.2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>795</v>
       </c>
@@ -36843,7 +36855,7 @@
         <v>693.6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>807</v>
       </c>
@@ -36864,7 +36876,7 @@
         <v>699.4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>814</v>
       </c>
@@ -36885,7 +36897,7 @@
         <v>703.6</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>817</v>
       </c>
@@ -36906,7 +36918,7 @@
         <v>706.4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>824</v>
       </c>
@@ -36927,7 +36939,7 @@
         <v>711.8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>838</v>
       </c>
@@ -36948,7 +36960,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>840</v>
       </c>
@@ -36969,7 +36981,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>841</v>
       </c>
@@ -36990,7 +37002,7 @@
         <v>723.2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>844</v>
       </c>
@@ -37011,7 +37023,7 @@
         <v>730.6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>850</v>
       </c>
@@ -37032,7 +37044,7 @@
         <v>732.6</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>854</v>
       </c>
@@ -37053,7 +37065,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>858</v>
       </c>
@@ -37074,7 +37086,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>861</v>
       </c>
@@ -37095,7 +37107,7 @@
         <v>743.6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>871</v>
       </c>
@@ -37116,7 +37128,7 @@
         <v>748.4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>882</v>
       </c>
@@ -37137,7 +37149,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>898</v>
       </c>
@@ -37158,7 +37170,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>882</v>
       </c>
@@ -37179,7 +37191,7 @@
         <v>756.6</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>897</v>
       </c>
@@ -37200,7 +37212,7 @@
         <v>765.4</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>922</v>
       </c>
@@ -37221,7 +37233,7 @@
         <v>773.2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>914</v>
       </c>
@@ -37242,7 +37254,7 @@
         <v>773.2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>928</v>
       </c>
@@ -37263,7 +37275,7 @@
         <v>779.8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>937</v>
       </c>
@@ -37284,7 +37296,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>945</v>
       </c>
@@ -37305,7 +37317,7 @@
         <v>787.8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>950</v>
       </c>
@@ -37326,7 +37338,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>960</v>
       </c>
@@ -37347,7 +37359,7 @@
         <v>795.2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>970</v>
       </c>
@@ -37368,7 +37380,7 @@
         <v>799.6</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>989</v>
       </c>
@@ -37389,7 +37401,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>990</v>
       </c>
@@ -37410,7 +37422,7 @@
         <v>811.8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>996</v>
       </c>
@@ -37431,7 +37443,7 @@
         <v>812.4</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>992</v>
       </c>
@@ -37452,7 +37464,7 @@
         <v>816.8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1002</v>
       </c>
@@ -37473,7 +37485,7 @@
         <v>820.4</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1018</v>
       </c>
@@ -37494,7 +37506,7 @@
         <v>828.2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1016</v>
       </c>
@@ -37515,7 +37527,7 @@
         <v>828.2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1044</v>
       </c>
@@ -37536,7 +37548,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1033</v>
       </c>
@@ -37557,7 +37569,7 @@
         <v>837.4</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1036</v>
       </c>
@@ -37578,7 +37590,7 @@
         <v>840.4</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1046</v>
       </c>
@@ -37599,7 +37611,7 @@
         <v>842.8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1046</v>
       </c>
@@ -37620,7 +37632,7 @@
         <v>848.8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1055</v>
       </c>
@@ -37641,7 +37653,7 @@
         <v>852.2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1073</v>
       </c>
@@ -37662,7 +37674,7 @@
         <v>858.6</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1064</v>
       </c>
@@ -37683,7 +37695,7 @@
         <v>861.4</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1084</v>
       </c>
@@ -37704,7 +37716,7 @@
         <v>867.6</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1083</v>
       </c>
@@ -37725,7 +37737,7 @@
         <v>869.4</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1088</v>
       </c>
@@ -37746,7 +37758,7 @@
         <v>873.4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1098</v>
       </c>
@@ -37767,7 +37779,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1092</v>
       </c>
@@ -37788,7 +37800,7 @@
         <v>879.2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1117</v>
       </c>
@@ -37809,7 +37821,7 @@
         <v>887.8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1120</v>
       </c>
@@ -37830,7 +37842,7 @@
         <v>890.6</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1098</v>
       </c>
@@ -37851,7 +37863,7 @@
         <v>888.4</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1129</v>
       </c>
@@ -37872,7 +37884,7 @@
         <v>896.8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1125</v>
       </c>
@@ -37893,7 +37905,7 @@
         <v>899.4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1143</v>
       </c>
@@ -37914,7 +37926,7 @@
         <v>904.6</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1135</v>
       </c>
@@ -37935,7 +37947,7 @@
         <v>905.2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1156</v>
       </c>
@@ -37956,7 +37968,7 @@
         <v>914.2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1146</v>
       </c>
@@ -37977,7 +37989,7 @@
         <v>913.4</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1154</v>
       </c>
@@ -37998,7 +38010,7 @@
         <v>914.4</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1155</v>
       </c>
@@ -38019,7 +38031,7 @@
         <v>918.8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1160</v>
       </c>
@@ -38040,7 +38052,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1175</v>
       </c>
@@ -38061,7 +38073,7 @@
         <v>927.2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1184</v>
       </c>
@@ -38082,7 +38094,7 @@
         <v>929.8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1168</v>
       </c>
@@ -38103,7 +38115,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1182</v>
       </c>
@@ -38124,7 +38136,7 @@
         <v>935.8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1197</v>
       </c>
@@ -38145,7 +38157,7 @@
         <v>941.6</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1212</v>
       </c>
@@ -38166,7 +38178,7 @@
         <v>948.2</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1217</v>
       </c>
@@ -38187,7 +38199,7 @@
         <v>951.6</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1220</v>
       </c>
@@ -38208,7 +38220,7 @@
         <v>950.6</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1215</v>
       </c>
@@ -38229,7 +38241,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1212</v>
       </c>
@@ -38250,7 +38262,7 @@
         <v>956.8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1221</v>
       </c>
@@ -38271,7 +38283,7 @@
         <v>961.4</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1224</v>
       </c>
@@ -38292,7 +38304,7 @@
         <v>958.6</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1226</v>
       </c>
@@ -38323,13 +38335,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3712A845-AC15-48A5-BBC8-EBCCB96A2AA6}">
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F94" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -38349,7 +38361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>400</v>
       </c>
@@ -38370,7 +38382,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>407</v>
       </c>
@@ -38391,7 +38403,7 @@
         <v>403.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>412</v>
       </c>
@@ -38412,7 +38424,7 @@
         <v>406.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>409</v>
       </c>
@@ -38433,7 +38445,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>419</v>
       </c>
@@ -38454,7 +38466,7 @@
         <v>404.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>415</v>
       </c>
@@ -38475,7 +38487,7 @@
         <v>403.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>408</v>
       </c>
@@ -38496,7 +38508,7 @@
         <v>407.2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>407</v>
       </c>
@@ -38517,7 +38529,7 @@
         <v>405.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>400</v>
       </c>
@@ -38538,7 +38550,7 @@
         <v>401.4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>405</v>
       </c>
@@ -38559,7 +38571,7 @@
         <v>403.2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>420</v>
       </c>
@@ -38580,7 +38592,7 @@
         <v>407.6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>415</v>
       </c>
@@ -38601,7 +38613,7 @@
         <v>408.8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>410</v>
       </c>
@@ -38622,7 +38634,7 @@
         <v>408.2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>409</v>
       </c>
@@ -38643,7 +38655,7 @@
         <v>406.6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>404</v>
       </c>
@@ -38664,7 +38676,7 @@
         <v>403.4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>405</v>
       </c>
@@ -38685,7 +38697,7 @@
         <v>406.4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>408</v>
       </c>
@@ -38706,7 +38718,7 @@
         <v>406.6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>411</v>
       </c>
@@ -38727,7 +38739,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>413</v>
       </c>
@@ -38748,7 +38760,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>409</v>
       </c>
@@ -38769,7 +38781,7 @@
         <v>405.2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>406</v>
       </c>
@@ -38790,7 +38802,7 @@
         <v>403.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>413</v>
       </c>
@@ -38811,7 +38823,7 @@
         <v>407.8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>408</v>
       </c>
@@ -38832,7 +38844,7 @@
         <v>408.8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>421</v>
       </c>
@@ -38853,7 +38865,7 @@
         <v>409.8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>407</v>
       </c>
@@ -38874,7 +38886,7 @@
         <v>404.2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>414</v>
       </c>
@@ -38895,7 +38907,7 @@
         <v>406.4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>414</v>
       </c>
@@ -38916,7 +38928,7 @@
         <v>409.4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>413</v>
       </c>
@@ -38937,7 +38949,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>415</v>
       </c>
@@ -38958,7 +38970,7 @@
         <v>406.8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>412</v>
       </c>
@@ -38979,7 +38991,7 @@
         <v>407.6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>412</v>
       </c>
@@ -39000,7 +39012,7 @@
         <v>405.8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>419</v>
       </c>
@@ -39021,7 +39033,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>408</v>
       </c>
@@ -39042,7 +39054,7 @@
         <v>406.6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>404</v>
       </c>
@@ -39063,7 +39075,7 @@
         <v>405.8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>406</v>
       </c>
@@ -39084,7 +39096,7 @@
         <v>403.4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>412</v>
       </c>
@@ -39105,7 +39117,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>410</v>
       </c>
@@ -39126,7 +39138,7 @@
         <v>407.6</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>409</v>
       </c>
@@ -39147,7 +39159,7 @@
         <v>404.8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>413</v>
       </c>
@@ -39168,7 +39180,7 @@
         <v>404.4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>414</v>
       </c>
@@ -39189,7 +39201,7 @@
         <v>405.6</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>414</v>
       </c>
@@ -39210,7 +39222,7 @@
         <v>405.6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>417</v>
       </c>
@@ -39231,7 +39243,7 @@
         <v>409.8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>412</v>
       </c>
@@ -39252,7 +39264,7 @@
         <v>405.6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>417</v>
       </c>
@@ -39273,7 +39285,7 @@
         <v>407.8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>412</v>
       </c>
@@ -39294,7 +39306,7 @@
         <v>404.2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>409</v>
       </c>
@@ -39315,7 +39327,7 @@
         <v>406.2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>406</v>
       </c>
@@ -39336,7 +39348,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>414</v>
       </c>
@@ -39357,7 +39369,7 @@
         <v>408.6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>412</v>
       </c>
@@ -39378,7 +39390,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>415</v>
       </c>
@@ -39399,7 +39411,7 @@
         <v>409.4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>414</v>
       </c>
@@ -39420,7 +39432,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>412</v>
       </c>
@@ -39441,7 +39453,7 @@
         <v>408.6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>416</v>
       </c>
@@ -39462,7 +39474,7 @@
         <v>407.2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>417</v>
       </c>
@@ -39483,7 +39495,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>417</v>
       </c>
@@ -39504,7 +39516,7 @@
         <v>407.8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>410</v>
       </c>
@@ -39525,7 +39537,7 @@
         <v>407.2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>414</v>
       </c>
@@ -39546,7 +39558,7 @@
         <v>408.4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>412</v>
       </c>
@@ -39567,7 +39579,7 @@
         <v>406.6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>418</v>
       </c>
@@ -39588,7 +39600,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>407</v>
       </c>
@@ -39609,7 +39621,7 @@
         <v>405.6</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>423</v>
       </c>
@@ -39630,7 +39642,7 @@
         <v>409.2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>418</v>
       </c>
@@ -39651,7 +39663,7 @@
         <v>406.4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>414</v>
       </c>
@@ -39672,7 +39684,7 @@
         <v>406.8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>411</v>
       </c>
@@ -39693,7 +39705,7 @@
         <v>404.8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>411</v>
       </c>
@@ -39714,7 +39726,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>421</v>
       </c>
@@ -39735,7 +39747,7 @@
         <v>409.4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>413</v>
       </c>
@@ -39756,7 +39768,7 @@
         <v>403.6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>411</v>
       </c>
@@ -39777,7 +39789,7 @@
         <v>403.6</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>414</v>
       </c>
@@ -39798,7 +39810,7 @@
         <v>406.4</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>410</v>
       </c>
@@ -39819,7 +39831,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>424</v>
       </c>
@@ -39840,7 +39852,7 @@
         <v>408.8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>412</v>
       </c>
@@ -39861,7 +39873,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>410</v>
       </c>
@@ -39882,7 +39894,7 @@
         <v>407.6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>414</v>
       </c>
@@ -39903,7 +39915,7 @@
         <v>405.8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>412</v>
       </c>
@@ -39924,7 +39936,7 @@
         <v>406.4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>411</v>
       </c>
@@ -39945,7 +39957,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>409</v>
       </c>
@@ -39966,7 +39978,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>409</v>
       </c>
@@ -39987,7 +39999,7 @@
         <v>406.4</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>412</v>
       </c>
@@ -40008,7 +40020,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>411</v>
       </c>
@@ -40029,7 +40041,7 @@
         <v>405.4</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>411</v>
       </c>
@@ -40050,7 +40062,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>411</v>
       </c>
@@ -40071,7 +40083,7 @@
         <v>407.2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>418</v>
       </c>
@@ -40092,7 +40104,7 @@
         <v>407.6</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>419</v>
       </c>
@@ -40113,7 +40125,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>412</v>
       </c>
@@ -40134,7 +40146,7 @@
         <v>406.6</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>408</v>
       </c>
@@ -40155,7 +40167,7 @@
         <v>404.6</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>413</v>
       </c>
@@ -40176,7 +40188,7 @@
         <v>409.2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>412</v>
       </c>
@@ -40197,7 +40209,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>413</v>
       </c>
@@ -40218,7 +40230,7 @@
         <v>405.6</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>411</v>
       </c>
@@ -40239,7 +40251,7 @@
         <v>406.4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>410</v>
       </c>
@@ -40260,7 +40272,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>409</v>
       </c>
@@ -40281,7 +40293,7 @@
         <v>403.8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>411</v>
       </c>
@@ -40302,7 +40314,7 @@
         <v>405.6</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>414</v>
       </c>
@@ -40323,7 +40335,7 @@
         <v>406.4</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>416</v>
       </c>
@@ -40344,7 +40356,7 @@
         <v>406.4</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>415</v>
       </c>
@@ -40365,7 +40377,7 @@
         <v>407.8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>411</v>
       </c>
@@ -40386,7 +40398,7 @@
         <v>406.2</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>422</v>
       </c>
@@ -40407,7 +40419,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>411</v>
       </c>
@@ -40428,7 +40440,7 @@
         <v>407.2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>419</v>
       </c>
@@ -40449,7 +40461,7 @@
         <v>407.2</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>419</v>
       </c>
@@ -40470,7 +40482,7 @@
         <v>408.8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>415</v>
       </c>
@@ -40491,7 +40503,7 @@
         <v>406.4</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>419</v>
       </c>
@@ -40512,7 +40524,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>422</v>
       </c>
@@ -40533,7 +40545,7 @@
         <v>407.8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>418</v>
       </c>
@@ -40554,7 +40566,7 @@
         <v>411.2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>417</v>
       </c>
@@ -40575,7 +40587,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>411</v>
       </c>
@@ -40596,7 +40608,7 @@
         <v>408.6</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>422</v>
       </c>
@@ -40617,7 +40629,7 @@
         <v>407.2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>418</v>
       </c>
@@ -40638,7 +40650,7 @@
         <v>407.8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>423</v>
       </c>
@@ -40659,7 +40671,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>417</v>
       </c>
@@ -40680,7 +40692,7 @@
         <v>408.8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>415</v>
       </c>
@@ -40701,7 +40713,7 @@
         <v>408.6</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>418</v>
       </c>
@@ -40722,7 +40734,7 @@
         <v>410.4</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>412</v>
       </c>
@@ -40743,7 +40755,7 @@
         <v>404.8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>413</v>
       </c>
@@ -40764,7 +40776,7 @@
         <v>403.8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>422</v>
       </c>
@@ -40785,7 +40797,7 @@
         <v>409.8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>418</v>
       </c>
@@ -40806,7 +40818,7 @@
         <v>409.8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>422</v>
       </c>
@@ -40827,7 +40839,7 @@
         <v>409.2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>414</v>
       </c>
@@ -40848,7 +40860,7 @@
         <v>408.6</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>425</v>
       </c>
@@ -40869,7 +40881,7 @@
         <v>411.8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>420</v>
       </c>
@@ -40900,13 +40912,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828CDFF1-9F46-47BC-BCBB-78D2F9CB518C}">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="F98" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -40926,7 +40941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>411</v>
       </c>
@@ -40947,7 +40962,7 @@
         <v>404.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>406</v>
       </c>
@@ -40968,7 +40983,7 @@
         <v>402.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>400</v>
       </c>
@@ -40989,7 +41004,7 @@
         <v>403.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>400</v>
       </c>
@@ -41010,7 +41025,7 @@
         <v>405.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>410</v>
       </c>
@@ -41031,7 +41046,7 @@
         <v>408.2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>400</v>
       </c>
@@ -41052,7 +41067,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>403</v>
       </c>
@@ -41073,7 +41088,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>408</v>
       </c>
@@ -41094,7 +41109,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>402</v>
       </c>
@@ -41115,7 +41130,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>405</v>
       </c>
@@ -41136,7 +41151,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>407</v>
       </c>
@@ -41157,7 +41172,7 @@
         <v>408.6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>403</v>
       </c>
@@ -41178,7 +41193,7 @@
         <v>406.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>409</v>
       </c>
@@ -41199,7 +41214,7 @@
         <v>405.4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>400</v>
       </c>
@@ -41220,7 +41235,7 @@
         <v>402.8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>412</v>
       </c>
@@ -41241,7 +41256,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>416</v>
       </c>
@@ -41262,7 +41277,7 @@
         <v>406.4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>419</v>
       </c>
@@ -41283,7 +41298,7 @@
         <v>405.8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>414</v>
       </c>
@@ -41304,7 +41319,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>411</v>
       </c>
@@ -41325,7 +41340,7 @@
         <v>408.6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>415</v>
       </c>
@@ -41346,7 +41361,7 @@
         <v>408.2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>412</v>
       </c>
@@ -41367,7 +41382,7 @@
         <v>409.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>416</v>
       </c>
@@ -41388,7 +41403,7 @@
         <v>411.2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>408</v>
       </c>
@@ -41409,7 +41424,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>410</v>
       </c>
@@ -41430,7 +41445,7 @@
         <v>406.8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>415</v>
       </c>
@@ -41451,7 +41466,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>414</v>
       </c>
@@ -41472,7 +41487,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>405</v>
       </c>
@@ -41493,7 +41508,7 @@
         <v>407.2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>416</v>
       </c>
@@ -41514,7 +41529,7 @@
         <v>408.2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>411</v>
       </c>
@@ -41535,7 +41550,7 @@
         <v>410.8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>412</v>
       </c>
@@ -41556,7 +41571,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>407</v>
       </c>
@@ -41577,7 +41592,7 @@
         <v>406.8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>418</v>
       </c>
@@ -41598,7 +41613,7 @@
         <v>409.8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>414</v>
       </c>
@@ -41619,7 +41634,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>417</v>
       </c>
@@ -41640,7 +41655,7 @@
         <v>408.4</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>414</v>
       </c>
@@ -41661,7 +41676,7 @@
         <v>410.4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>409</v>
       </c>
@@ -41682,7 +41697,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>416</v>
       </c>
@@ -41703,7 +41718,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>416</v>
       </c>
@@ -41724,7 +41739,7 @@
         <v>411.6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>417</v>
       </c>
@@ -41745,7 +41760,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>418</v>
       </c>
@@ -41766,7 +41781,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>416</v>
       </c>
@@ -41787,7 +41802,7 @@
         <v>410.8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>416</v>
       </c>
@@ -41808,7 +41823,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>412</v>
       </c>
@@ -41829,7 +41844,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>419</v>
       </c>
@@ -41850,7 +41865,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>407</v>
       </c>
@@ -41871,7 +41886,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>423</v>
       </c>
@@ -41892,7 +41907,7 @@
         <v>411.8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>413</v>
       </c>
@@ -41913,7 +41928,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>417</v>
       </c>
@@ -41934,7 +41949,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>423</v>
       </c>
@@ -41955,7 +41970,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>416</v>
       </c>
@@ -41976,7 +41991,7 @@
         <v>411.6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>407</v>
       </c>
@@ -41997,7 +42012,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>415</v>
       </c>
@@ -42018,7 +42033,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>413</v>
       </c>
@@ -42039,7 +42054,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>413</v>
       </c>
@@ -42060,7 +42075,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>413</v>
       </c>
@@ -42081,7 +42096,7 @@
         <v>412.4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>413</v>
       </c>
@@ -42102,7 +42117,7 @@
         <v>408.2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>420</v>
       </c>
@@ -42123,7 +42138,7 @@
         <v>411.2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>412</v>
       </c>
@@ -42144,7 +42159,7 @@
         <v>408.2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>425</v>
       </c>
@@ -42165,7 +42180,7 @@
         <v>414.6</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>419</v>
       </c>
@@ -42186,7 +42201,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>417</v>
       </c>
@@ -42207,7 +42222,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>413</v>
       </c>
@@ -42228,7 +42243,7 @@
         <v>410.4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>417</v>
       </c>
@@ -42249,7 +42264,7 @@
         <v>409.8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>414</v>
       </c>
@@ -42270,7 +42285,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>411</v>
       </c>
@@ -42291,7 +42306,7 @@
         <v>411.2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>412</v>
       </c>
@@ -42312,7 +42327,7 @@
         <v>409.4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>409</v>
       </c>
@@ -42333,7 +42348,7 @@
         <v>408.4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>409</v>
       </c>
@@ -42354,7 +42369,7 @@
         <v>408.4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>419</v>
       </c>
@@ -42375,7 +42390,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>417</v>
       </c>
@@ -42396,7 +42411,7 @@
         <v>412.4</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>416</v>
       </c>
@@ -42417,7 +42432,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>422</v>
       </c>
@@ -42438,7 +42453,7 @@
         <v>413.2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>414</v>
       </c>
@@ -42459,7 +42474,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>422</v>
       </c>
@@ -42480,7 +42495,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>415</v>
       </c>
@@ -42501,7 +42516,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>422</v>
       </c>
@@ -42522,7 +42537,7 @@
         <v>411.8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>418</v>
       </c>
@@ -42543,7 +42558,7 @@
         <v>411.2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>420</v>
       </c>
@@ -42564,7 +42579,7 @@
         <v>408.8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>417</v>
       </c>
@@ -42585,7 +42600,7 @@
         <v>409.4</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>416</v>
       </c>
@@ -42606,7 +42621,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>417</v>
       </c>
@@ -42627,7 +42642,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>415</v>
       </c>
@@ -42648,7 +42663,7 @@
         <v>408.2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>416</v>
       </c>
@@ -42669,7 +42684,7 @@
         <v>409.8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>413</v>
       </c>
@@ -42690,7 +42705,7 @@
         <v>410.4</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>415</v>
       </c>
@@ -42711,7 +42726,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>415</v>
       </c>
@@ -42732,7 +42747,7 @@
         <v>411.6</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>423</v>
       </c>
@@ -42753,7 +42768,7 @@
         <v>411.2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>419</v>
       </c>
@@ -42774,7 +42789,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>424</v>
       </c>
@@ -42795,7 +42810,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>420</v>
       </c>
@@ -42816,7 +42831,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>415</v>
       </c>
@@ -42837,7 +42852,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>420</v>
       </c>
@@ -42858,7 +42873,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>411</v>
       </c>
@@ -42879,7 +42894,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>422</v>
       </c>
@@ -42900,7 +42915,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>422</v>
       </c>
@@ -42921,7 +42936,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>416</v>
       </c>
@@ -42942,7 +42957,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>413</v>
       </c>
@@ -42963,7 +42978,7 @@
         <v>408.6</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>418</v>
       </c>
@@ -42984,7 +42999,7 @@
         <v>409.8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>419</v>
       </c>
@@ -43005,7 +43020,7 @@
         <v>408.8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>423</v>
       </c>
@@ -43026,7 +43041,7 @@
         <v>411.6</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>413</v>
       </c>
@@ -43047,7 +43062,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>420</v>
       </c>
@@ -43068,7 +43083,7 @@
         <v>410.4</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>422</v>
       </c>
@@ -43089,7 +43104,7 @@
         <v>409.4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>414</v>
       </c>
@@ -43110,7 +43125,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>415</v>
       </c>
@@ -43131,7 +43146,7 @@
         <v>412.4</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>412</v>
       </c>
@@ -43152,7 +43167,7 @@
         <v>407.2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>415</v>
       </c>
@@ -43173,7 +43188,7 @@
         <v>407.8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>415</v>
       </c>
@@ -43194,7 +43209,7 @@
         <v>407.8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>412</v>
       </c>
@@ -43215,7 +43230,7 @@
         <v>406.8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>418</v>
       </c>
@@ -43236,7 +43251,7 @@
         <v>409.2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>415</v>
       </c>
@@ -43257,7 +43272,7 @@
         <v>412.2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>417</v>
       </c>
@@ -43278,7 +43293,7 @@
         <v>409.2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>419</v>
       </c>
@@ -43299,7 +43314,7 @@
         <v>412.6</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>422</v>
       </c>
@@ -43320,7 +43335,7 @@
         <v>413.6</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>422</v>
       </c>
@@ -43341,7 +43356,7 @@
         <v>413.4</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>420</v>
       </c>
@@ -43362,7 +43377,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>415</v>
       </c>
@@ -43383,7 +43398,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>422</v>
       </c>
@@ -43404,7 +43419,7 @@
         <v>413.2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>422</v>
       </c>
@@ -43425,7 +43440,7 @@
         <v>408.8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>421</v>
       </c>
@@ -43446,7 +43461,7 @@
         <v>409.2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>421</v>
       </c>
@@ -43467,7 +43482,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>418</v>
       </c>
@@ -43488,7 +43503,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>426</v>
       </c>
@@ -43519,13 +43534,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27AB68F-CD9B-4903-92D7-B3094E7B2351}">
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -43548,7 +43572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>400.6</v>
       </c>
@@ -43571,7 +43595,7 @@
         <v>404.4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>403</v>
       </c>
@@ -43594,7 +43618,7 @@
         <v>402.4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>402.6</v>
       </c>
@@ -43617,7 +43641,7 @@
         <v>403.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>403.8</v>
       </c>
@@ -43640,7 +43664,7 @@
         <v>405.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>405.6</v>
       </c>
@@ -43663,7 +43687,7 @@
         <v>408.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>405.4</v>
       </c>
@@ -43686,7 +43710,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>407.4</v>
       </c>
@@ -43709,7 +43733,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>408</v>
       </c>
@@ -43732,7 +43756,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>409</v>
       </c>
@@ -43755,7 +43779,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>406.6</v>
       </c>
@@ -43778,7 +43802,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>409</v>
       </c>
@@ -43801,7 +43825,7 @@
         <v>408.6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>412.4</v>
       </c>
@@ -43824,7 +43848,7 @@
         <v>406.4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>410.6</v>
       </c>
@@ -43847,7 +43871,7 @@
         <v>405.4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>412.2</v>
       </c>
@@ -43870,7 +43894,7 @@
         <v>402.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>414.6</v>
       </c>
@@ -43893,7 +43917,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>415.8</v>
       </c>
@@ -43916,7 +43940,7 @@
         <v>406.4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>416.8</v>
       </c>
@@ -43939,7 +43963,7 @@
         <v>405.8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>415.6</v>
       </c>
@@ -43962,7 +43986,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>422.2</v>
       </c>
@@ -43985,7 +44009,7 @@
         <v>408.6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>416.6</v>
       </c>
@@ -44008,7 +44032,7 @@
         <v>408.2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>424.4</v>
       </c>
@@ -44031,7 +44055,7 @@
         <v>409.2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>423</v>
       </c>
@@ -44054,7 +44078,7 @@
         <v>411.2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>422.6</v>
       </c>
@@ -44077,7 +44101,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>427.2</v>
       </c>
@@ -44100,7 +44124,7 @@
         <v>406.8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>429</v>
       </c>
@@ -44123,7 +44147,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>429.6</v>
       </c>
@@ -44146,7 +44170,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>431.6</v>
       </c>
@@ -44169,7 +44193,7 @@
         <v>407.2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>432.2</v>
       </c>
@@ -44192,7 +44216,7 @@
         <v>408.2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>432.4</v>
       </c>
@@ -44215,7 +44239,7 @@
         <v>410.8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>434.6</v>
       </c>
@@ -44238,7 +44262,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>436.4</v>
       </c>
@@ -44261,7 +44285,7 @@
         <v>406.8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>436.8</v>
       </c>
@@ -44284,7 +44308,7 @@
         <v>409.8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>440</v>
       </c>
@@ -44307,7 +44331,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>440.8</v>
       </c>
@@ -44330,7 +44354,7 @@
         <v>408.4</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>442</v>
       </c>
@@ -44353,7 +44377,7 @@
         <v>410.4</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>445.8</v>
       </c>
@@ -44376,7 +44400,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>446.4</v>
       </c>
@@ -44399,7 +44423,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>447.4</v>
       </c>
@@ -44422,7 +44446,7 @@
         <v>411.6</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>447.6</v>
       </c>
@@ -44445,7 +44469,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>447.8</v>
       </c>
@@ -44468,7 +44492,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>449</v>
       </c>
@@ -44491,7 +44515,7 @@
         <v>410.8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>455.2</v>
       </c>
@@ -44514,7 +44538,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>455.2</v>
       </c>
@@ -44537,7 +44561,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>455.6</v>
       </c>
@@ -44560,7 +44584,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>457</v>
       </c>
@@ -44583,7 +44607,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>460.8</v>
       </c>
@@ -44606,7 +44630,7 @@
         <v>411.8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>461.6</v>
       </c>
@@ -44629,7 +44653,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>462.8</v>
       </c>
@@ -44652,7 +44676,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>462.4</v>
       </c>
@@ -44675,7 +44699,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>464.2</v>
       </c>
@@ -44698,7 +44722,7 @@
         <v>411.6</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>465.2</v>
       </c>
@@ -44721,7 +44745,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>468.8</v>
       </c>
@@ -44744,7 +44768,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>466</v>
       </c>
@@ -44767,7 +44791,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>471.4</v>
       </c>
@@ -44790,7 +44814,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>470.8</v>
       </c>
@@ -44813,7 +44837,7 @@
         <v>412.4</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>473.6</v>
       </c>
@@ -44836,7 +44860,7 @@
         <v>408.2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>473.4</v>
       </c>
@@ -44859,7 +44883,7 @@
         <v>411.2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>478.4</v>
       </c>
@@ -44882,7 +44906,7 @@
         <v>408.2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>475.4</v>
       </c>
@@ -44905,7 +44929,7 @@
         <v>414.6</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>479.6</v>
       </c>
@@ -44928,7 +44952,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>478.8</v>
       </c>
@@ -44951,7 +44975,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>478.2</v>
       </c>
@@ -44974,7 +44998,7 @@
         <v>410.4</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>483.2</v>
       </c>
@@ -44997,7 +45021,7 @@
         <v>409.8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>483</v>
       </c>
@@ -45020,7 +45044,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>485.4</v>
       </c>
@@ -45043,7 +45067,7 @@
         <v>411.2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>482.4</v>
       </c>
@@ -45066,7 +45090,7 @@
         <v>409.4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>488</v>
       </c>
@@ -45089,7 +45113,7 @@
         <v>408.4</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>487.8</v>
       </c>
@@ -45112,7 +45136,7 @@
         <v>408.4</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>490.8</v>
       </c>
@@ -45135,7 +45159,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>491.8</v>
       </c>
@@ -45158,7 +45182,7 @@
         <v>412.4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>493.2</v>
       </c>
@@ -45181,7 +45205,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>493.6</v>
       </c>
@@ -45204,7 +45228,7 @@
         <v>413.2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>493.6</v>
       </c>
@@ -45227,7 +45251,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>493</v>
       </c>
@@ -45250,7 +45274,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>496</v>
       </c>
@@ -45273,7 +45297,7 @@
         <v>411.4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>496.8</v>
       </c>
@@ -45296,7 +45320,7 @@
         <v>411.8</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>498.4</v>
       </c>
@@ -45319,7 +45343,7 @@
         <v>411.2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>501.4</v>
       </c>
@@ -45342,7 +45366,7 @@
         <v>408.8</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>500</v>
       </c>
@@ -45365,7 +45389,7 @@
         <v>409.4</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>505.4</v>
       </c>
@@ -45388,7 +45412,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>501</v>
       </c>
@@ -45411,7 +45435,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>502.8</v>
       </c>
@@ -45434,7 +45458,7 @@
         <v>408.2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>506.8</v>
       </c>
@@ -45457,7 +45481,7 @@
         <v>409.8</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>510</v>
       </c>
@@ -45480,7 +45504,7 @@
         <v>410.4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>510.8</v>
       </c>
@@ -45503,7 +45527,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>506.4</v>
       </c>
@@ -45526,7 +45550,7 @@
         <v>411.6</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>514.79999999999995</v>
       </c>
@@ -45549,7 +45573,7 @@
         <v>411.2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>513.79999999999995</v>
       </c>
@@ -45572,7 +45596,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>514.79999999999995</v>
       </c>
@@ -45595,7 +45619,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>513.79999999999995</v>
       </c>
@@ -45618,7 +45642,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>516.79999999999995</v>
       </c>
@@ -45641,7 +45665,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>519.6</v>
       </c>
@@ -45664,7 +45688,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>520</v>
       </c>
@@ -45687,7 +45711,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>522.4</v>
       </c>
@@ -45710,7 +45734,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>523.6</v>
       </c>
@@ -45733,7 +45757,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>525</v>
       </c>
@@ -45756,7 +45780,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>528.6</v>
       </c>
@@ -45779,7 +45803,7 @@
         <v>408.6</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>526</v>
       </c>
@@ -45802,7 +45826,7 @@
         <v>409.8</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>531.20000000000005</v>
       </c>
@@ -45825,7 +45849,7 @@
         <v>408.8</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>533.6</v>
       </c>
@@ -45848,7 +45872,7 @@
         <v>411.6</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>534.20000000000005</v>
       </c>
@@ -45871,7 +45895,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>537</v>
       </c>
@@ -45894,7 +45918,7 @@
         <v>410.4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>536.79999999999995</v>
       </c>
@@ -45917,7 +45941,7 @@
         <v>409.4</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>535.4</v>
       </c>
@@ -45940,7 +45964,7 @@
         <v>407.4</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>537.79999999999995</v>
       </c>
@@ -45963,7 +45987,7 @@
         <v>412.4</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>541.6</v>
       </c>
@@ -45986,7 +46010,7 @@
         <v>407.2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>546.20000000000005</v>
       </c>
@@ -46009,7 +46033,7 @@
         <v>407.8</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>543.20000000000005</v>
       </c>
@@ -46032,7 +46056,7 @@
         <v>407.8</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>543</v>
       </c>
@@ -46055,7 +46079,7 @@
         <v>406.8</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>539.79999999999995</v>
       </c>
@@ -46078,7 +46102,7 @@
         <v>409.2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>544.79999999999995</v>
       </c>
@@ -46101,7 +46125,7 @@
         <v>412.2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>548.20000000000005</v>
       </c>
@@ -46124,7 +46148,7 @@
         <v>409.2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>546.79999999999995</v>
       </c>
@@ -46147,7 +46171,7 @@
         <v>412.6</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>548</v>
       </c>
@@ -46170,7 +46194,7 @@
         <v>413.6</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>546</v>
       </c>
@@ -46193,7 +46217,7 @@
         <v>413.4</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>549</v>
       </c>
@@ -46216,7 +46240,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>548.6</v>
       </c>
@@ -46239,7 +46263,7 @@
         <v>409.6</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>551.6</v>
       </c>
@@ -46262,7 +46286,7 @@
         <v>413.2</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>553.79999999999995</v>
       </c>
@@ -46285,7 +46309,7 @@
         <v>408.8</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>558.20000000000005</v>
       </c>
@@ -46308,7 +46332,7 @@
         <v>409.2</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>559</v>
       </c>
@@ -46331,7 +46355,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>555.6</v>
       </c>
@@ -46351,7 +46375,7 @@
         <v>410.2</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>560.6</v>
       </c>
